--- a/results/DT/125Hz_3classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/125Hz_3classes_normalized/res_hyperopt.xlsx
@@ -473,16 +473,16 @@
         <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 64, 'max_features': 0.1441777764520231, 'min_samples_leaf': 0.0012949141241052394, 'min_samples_split': 0.05279096436825701}</t>
+          <t>{'max_depth': 40, 'max_features': 0.21050995967253827, 'min_samples_leaf': 0.0034911785768590043, 'min_samples_split': 0.00197352036897043}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.076, 'max_10_25': 0.012, 'score_at_perc_10_25': 0.003, 'min_10_25': 0.088, 'var_10_25': 0.053, 'mean_10_50': 0.07, 'percScore_10_50': 0.036, 'skew_25_75': 0.026, 'var_25_75': 0.042, 'coef_var_50_100': 0.061, 'std_class_50_100': 0.055, 'var_50_100': 0.02, 'mean_75_125': 0.02, 'max_75_125': 0.198, 'kurt_75_125': 0.075, 'score_at_perc_75_125': 0.035, 'coef_var_75_125': 0.036, 'min_75_125': 0.06, 'std_class_75_125': 0.031}</t>
+          <t>{'max_10_25': 0.02, 'skew_10_25': 0.005, 'percScore_10_25': 0.015, 'min_10_25': 0.018, 'mean_10_50': 0.05, 'kurt_10_50': 0.007, 'mad_10_50': 0.003, 'percScore_10_50': 0.011, 'coef_var_10_50': 0.049, 'coef_kstatvar_10_50': 0.007, 'std_class_10_50': 0.058, 'mean_25_75': 0.008, 'kurt_25_75': 0.051, 'skew_25_75': 0.017, 'entropy_25_75': 0.011, 'coef_kstatvar_25_75': 0.017, 'max_50_100': 0.197, 'skew_50_100': 0.021, 'entropy_50_100': 0.041, 'score_at_perc_50_100': 0.023, 'coef_var_50_100': 0.061, 'mean_75_125': 0.028, 'max_75_125': 0.115, 'skew_75_125': 0.005, 'coef_var_75_125': 0.047, 'std_class_75_125': 0.117}</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 97, 'max_features': 0.9389136071253587, 'min_samples_leaf': 0.031639409991072606, 'min_samples_split': 0.024338907806379838}</t>
+          <t>{'max_depth': 84, 'max_features': 0.6478207132548266, 'min_samples_leaf': 0.03147937897478015, 'min_samples_split': 0.07887285367711235}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.05, 'var_10_25': 0.105, 'mean_10_50': 0.012, 'coef_var_10_50': 0.05, 'coef_var_25_75': 0.001, 'min_25_75': 0.099, 'var_25_75': 0.02, 'max_75_125': 0.483, 'kurt_75_125': 0.004, 'std_class_75_125': 0.177}</t>
+          <t>{'mean_10_25': 0.05, 'var_10_25': 0.106, 'coef_var_10_50': 0.05, 'std_class_10_50': 0.008, 'std_class_25_75': 0.1, 'var_25_75': 0.019, 'coef_var_50_100': 0.001, 'max_75_125': 0.487, 'percScore_75_125': 0.001, 'coef_var_75_125': 0.121, 'min_75_125': 0.057}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 43, 'max_features': 0.4291760635340046, 'min_samples_leaf': 0.0010594338046834607, 'min_samples_split': 0.00952237636742357}</t>
+          <t>{'max_depth': 50, 'max_features': 0.17392775169160649, 'min_samples_leaf': 0.001540915829231502, 'min_samples_split': 0.009154590444479915}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.008, 'max_10_25': 0.019, 'skew_10_25': 0.008, 'score_at_perc_10_25': 0.011, 'coef_var_10_25': 0.039, 'min_10_25': 0.024, 'var_10_25': 0.026, 'mean_10_50': 0.007, 'kurt_10_50': 0.027, 'entropy_10_50': 0.014, 'std_class_10_50': 0.008, 'var_10_50': 0.122, 'kurt_25_75': 0.008, 'percScore_25_75': 0.009, 'min_25_75': 0.011, 'var_25_75': 0.055, 'coef_var_50_100': 0.099, 'var_50_100': 0.103, 'max_75_125': 0.03, 'kurt_75_125': 0.275, 'score_at_perc_75_125': 0.01, 'min_75_125': 0.04, 'std_class_75_125': 0.046}</t>
+          <t>{'var_75_125': 0.056, 'max_10_25': 0.009, 'percScore_10_25': 0.028, 'entropy_10_25': 0.009, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.012, 'mean_10_50': 0.059, 'max_10_50': 0.038, 'score_at_perc_10_50': 0.016, 'coef_var_10_50': 0.018, 'min_10_50': 0.028, 'mean_25_75': 0.07, 'kurt_25_75': 0.019, 'entropy_25_75': 0.01, 'min_25_75': 0.008, 'mean_50_100': 0.034, 'coef_var_50_100': 0.098, 'min_50_100': 0.026, 'var_50_100': 0.144, 'max_75_125': 0.069, 'kurt_75_125': 0.165, 'min_75_125': 0.04}</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 46, 'max_features': 0.3848333561078249, 'min_samples_leaf': 0.0014732955415273571, 'min_samples_split': 0.0646342930113396}</t>
+          <t>{'max_depth': 21, 'max_features': 0.3864457399369149, 'min_samples_leaf': 0.0017228355741540219, 'min_samples_split': 0.059444315073719944}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 64, 'max_features': 0.7575681992530229, 'min_samples_leaf': 0.001326211788468387, 'min_samples_split': 0.015267513709801377}</t>
+          <t>{'max_depth': 65, 'max_features': 0.25227881031422916, 'min_samples_leaf': 0.001748331776215726, 'min_samples_split': 0.018476119497741805}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.018, 'entropy_10_25': 0.01, 'coef_var_10_25': 0.018, 'mean_10_50': 0.091, 'coef_var_10_50': 0.085, 'min_10_50': 0.014, 'std_class_10_50': 0.13, 'mean_25_75': 0.037, 'skew_25_75': 0.009, 'var_25_75': 0.085, 'max_50_100': 0.264, 'coef_var_50_100': 0.054, 'std_class_50_100': 0.01, 'max_75_125': 0.038, 'kurt_75_125': 0.01, 'skew_75_125': 0.012, 'coef_var_75_125': 0.097, 'min_75_125': 0.017}</t>
+          <t>{'mean_10_25': 0.01, 'kurt_10_25': 0.003, 'skew_10_25': 0.012, 'mad_10_25': 0.009, 'score_at_perc_10_25': 0.014, 'min_10_25': 0.013, 'std_class_10_25': 0.007, 'var_10_25': 0.042, 'mean_10_50': 0.063, 'max_10_50': 0.035, 'kurt_10_50': 0.034, 'std_class_10_50': 0.088, 'score_at_perc_25_75': 0.02, 'coef_var_25_75': 0.06, 'kurt_50_100': 0.239, 'coef_var_50_100': 0.099, 'var_50_100': 0.098, 'coef_kstatvar_75_125': 0.011, 'min_75_125': 0.038, 'std_class_75_125': 0.104}</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 48, 'max_features': 0.8871775570245045, 'min_samples_leaf': 0.0013463860431899002, 'min_samples_split': 0.0011916551394561131}</t>
+          <t>{'max_depth': 68, 'max_features': 0.882033223971811, 'min_samples_leaf': 0.0014938694246004226, 'min_samples_split': 0.0014362544418775325}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 27, 'max_features': 0.190640920889042, 'min_samples_leaf': 0.018021451286671496, 'min_samples_split': 0.03037729798372486}</t>
+          <t>{'max_depth': 74, 'max_features': 0.1894975105046412, 'min_samples_leaf': 0.0164255564195606, 'min_samples_split': 0.032839477221636305}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D9" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 50, 'max_features': 0.4900819354730994, 'min_samples_leaf': 0.0021897731686216964, 'min_samples_split': 0.016157675325865144}</t>
+          <t>{'max_depth': 59, 'max_features': 0.3854059682886745, 'min_samples_leaf': 0.002190170827852455, 'min_samples_split': 0.02026536052065373}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.179, 'min_10_25': 0.014, 'std_class_10_25': 0.008, 'var_10_25': 0.046, 'mean_10_50': 0.035, 'min_10_50': 0.051, 'std_class_10_50': 0.019, 'kurt_25_75': 0.023, 'entropy_25_75': 0.008, 'min_25_75': 0.008, 'var_25_75': 0.026, 'max_50_100': 0.244, 'kurt_50_100': 0.007, 'skew_50_100': 0.01, 'entropy_50_100': 0.013, 'coef_var_50_100': 0.053, 'var_50_100': 0.029, 'max_75_125': 0.047, 'kurt_75_125': 0.008, 'skew_75_125': 0.007, 'percScore_75_125': 0.015, 'score_at_perc_75_125': 0.013, 'coef_var_75_125': 0.114, 'min_75_125': 0.025}</t>
+          <t>{'var_75_125': 0.033, 'mean_10_25': 0.119, 'max_10_25': 0.036, 'coef_kstatvar_10_25': 0.009, 'min_10_25': 0.057, 'std_class_10_25': 0.037, 'skew_10_50': 0.008, 'percScore_10_50': 0.026, 'min_10_50': 0.015, 'std_class_10_50': 0.065, 'max_25_75': 0.007, 'kurt_25_75': 0.012, 'max_50_100': 0.02, 'kurt_50_100': 0.211, 'skew_50_100': 0.015, 'coef_var_50_100': 0.122, 'coef_kstatvar_50_100': 0.017, 'var_50_100': 0.007, 'max_75_125': 0.104, 'entropy_75_125': 0.007, 'coef_var_75_125': 0.035, 'coef_kstatvar_75_125': 0.017, 'min_75_125': 0.023}</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 56, 'max_features': 0.37390239470132336, 'min_samples_leaf': 0.001261674334750135, 'min_samples_split': 0.02006769634221411}</t>
+          <t>{'max_depth': 63, 'max_features': 0.37671834283807837, 'min_samples_leaf': 0.001241758704877837, 'min_samples_split': 0.0186616669455833}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D11" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'max_features': 0.1162721319674177, 'min_samples_leaf': 0.0010245431849630483, 'min_samples_split': 0.017108816837320098}</t>
+          <t>{'max_depth': 89, 'max_features': 0.06589572721287121, 'min_samples_leaf': 0.0010150303247576445, 'min_samples_split': 0.034827642286986496}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.052, 'mean_10_25': 0.047, 'max_10_25': 0.008, 'percScore_10_25': 0.008, 'entropy_10_25': 0.017, 'min_10_25': 0.021, 'var_10_25': 0.061, 'mean_10_50': 0.003, 'max_10_50': 0.001, 'kurt_10_50': 0.008, 'skew_10_50': 0.022, 'percScore_10_50': 0.007, 'entropy_10_50': 0.007, 'score_at_perc_10_50': 0.008, 'coef_var_10_50': 0.008, 'min_10_50': 0.019, 'std_class_10_50': 0.059, 'kurt_25_75': 0.024, 'skew_25_75': 0.008, 'std_class_25_75': 0.02, 'kurt_50_100': 0.004, 'coef_var_50_100': 0.137, 'min_50_100': 0.078, 'var_50_100': 0.058, 'mean_75_125': 0.01, 'max_75_125': 0.071, 'mad_75_125': 0.172, 'percScore_75_125': 0.011, 'entropy_75_125': 0.016, 'coef_kstatvar_75_125': 0.007, 'min_75_125': 0.001, 'std_class_75_125': 0.028}</t>
+          <t>{'var_75_125': 0.09, 'mean_10_25': 0.047, 'score_at_perc_10_25': 0.028, 'min_10_25': 0.03, 'std_class_10_25': 0.032, 'mean_10_50': 0.023, 'max_10_50': 0.016, 'coef_var_10_50': 0.016, 'min_10_50': 0.018, 'var_10_50': 0.001, 'mean_25_75': 0.032, 'min_25_75': 0.032, 'mean_50_100': 0.011, 'kurt_50_100': 0.033, 'percScore_50_100': 0.017, 'coef_var_50_100': 0.081, 'min_50_100': 0.013, 'max_75_125': 0.24, 'percScore_75_125': 0.065, 'entropy_75_125': 0.004, 'score_at_perc_75_125': 0.021, 'coef_var_75_125': 0.051, 'min_75_125': 0.052, 'std_class_75_125': 0.047}</t>
         </is>
       </c>
     </row>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.48</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 64, 'max_features': 0.9949252686204831, 'min_samples_leaf': 0.0013067735694783315, 'min_samples_split': 0.02097474308373811}</t>
+          <t>{'max_depth': 38, 'max_features': 0.8810274023867779, 'min_samples_leaf': 0.0014238244834190797, 'min_samples_split': 0.00847961018042703}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.103, 'kurt_10_25': 0.07, 'score_at_perc_10_25': 0.008, 'min_10_25': 0.023, 'max_10_50': 0.007, 'percScore_10_50': 0.026, 'coef_var_10_50': 0.015, 'min_10_50': 0.045, 'kurt_25_75': 0.007, 'skew_25_75': 0.017, 'percScore_25_75': 0.008, 'coef_var_25_75': 0.057, 'var_25_75': 0.093, 'max_50_100': 0.267, 'skew_50_100': 0.004, 'coef_var_50_100': 0.07, 'coef_kstatvar_50_100': 0.015, 'skew_75_125': 0.008, 'percScore_75_125': 0.019, 'coef_var_75_125': 0.067, 'min_75_125': 0.054, 'std_class_75_125': 0.017}</t>
+          <t>{'mean_10_25': 0.097, 'kurt_10_25': 0.075, 'coef_var_10_25': 0.022, 'mean_10_50': 0.03, 'max_10_50': 0.007, 'percScore_10_50': 0.024, 'coef_var_10_50': 0.014, 'std_class_10_50': 0.05, 'var_10_50': 0.007, 'kurt_25_75': 0.015, 'percScore_25_75': 0.008, 'coef_var_25_75': 0.053, 'var_25_75': 0.046, 'mean_50_100': 0.01, 'max_50_100': 0.251, 'kurt_50_100': 0.021, 'skew_50_100': 0.004, 'percScore_50_100': 0.006, 'coef_var_50_100': 0.023, 'std_class_50_100': 0.012, 'var_50_100': 0.058, 'mean_75_125': 0.057, 'skew_75_125': 0.014, 'percScore_75_125': 0.018, 'coef_var_75_125': 0.063, 'min_75_125': 0.016}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 81, 'max_features': 0.47655550620075643, 'min_samples_leaf': 0.0018067564216496836, 'min_samples_split': 0.01125228191376354}</t>
+          <t>{'max_depth': 64, 'max_features': 0.4723921559086861, 'min_samples_leaf': 0.0013795874386710136, 'min_samples_split': 0.05724656452288794}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.04, 'mean_10_25': 0.099, 'kurt_10_25': 0.016, 'percScore_10_25': 0.014, 'coef_kstatvar_10_25': 0.013, 'max_10_50': 0.002, 'kurt_10_50': 0.007, 'min_10_50': 0.045, 'std_class_10_50': 0.03, 'mean_25_75': 0.071, 'kurt_25_75': 0.054, 'entropy_25_75': 0.018, 'score_at_perc_25_75': 0.011, 'min_25_75': 0.069, 'var_25_75': 0.075, 'max_50_100': 0.258, 'mad_50_100': 0.008, 'coef_var_50_100': 0.057, 'min_50_100': 0.031, 'std_class_50_100': 0.056, 'percScore_75_125': 0.008, 'coef_var_75_125': 0.019}</t>
+          <t>{'var_75_125': 0.016, 'kurt_10_25': 0.009, 'coef_kstatvar_10_25': 0.009, 'std_class_10_25': 0.062, 'var_10_25': 0.072, 'min_10_50': 0.05, 'std_class_10_50': 0.033, 'mean_25_75': 0.068, 'coef_var_25_75': 0.004, 'min_25_75': 0.054, 'var_25_75': 0.116, 'mean_50_100': 0.009, 'max_50_100': 0.29, 'coef_var_50_100': 0.027, 'min_50_100': 0.035, 'var_50_100': 0.034, 'kurt_75_125': 0.029, 'skew_75_125': 0.008, 'percScore_75_125': 0.009, 'score_at_perc_75_125': 0.009, 'coef_var_75_125': 0.022, 'std_class_75_125': 0.037}</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 50, 'max_features': 0.20952939507190294, 'min_samples_leaf': 0.0011849695391306335, 'min_samples_split': 0.001333578878786542}</t>
+          <t>{'max_depth': 72, 'max_features': 0.21362484823303957, 'min_samples_leaf': 0.0015219061627137686, 'min_samples_split': 0.0016974296597407623}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="D15" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 75, 'max_features': 0.306092473243316, 'min_samples_leaf': 0.0012266735819838395, 'min_samples_split': 0.0038465356385695222}</t>
+          <t>{'max_depth': 46, 'max_features': 0.4762009543207708, 'min_samples_leaf': 0.24213136121472423, 'min_samples_split': 0.4094013039987046}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'kurt_10_25': 0.002, 'skew_10_25': 0.021, 'coef_var_10_25': 0.013, 'min_10_25': 0.004, 'std_class_10_25': 0.054, 'var_10_25': 0.021, 'mean_10_50': 0.015, 'max_10_50': 0.004, 'entropy_10_50': 0.009, 'coef_var_10_50': 0.019, 'min_10_50': 0.063, 'kurt_25_75': 0.005, 'entropy_25_75': 0.01, 'coef_var_25_75': 0.065, 'std_class_25_75': 0.028, 'var_25_75': 0.02, 'max_50_100': 0.104, 'kurt_50_100': 0.013, 'percScore_50_100': 0.007, 'entropy_50_100': 0.005, 'coef_var_50_100': 0.084, 'coef_kstatvar_50_100': 0.012, 'var_50_100': 0.045, 'max_75_125': 0.225, 'kurt_75_125': 0.007, 'entropy_75_125': 0.032, 'score_at_perc_75_125': 0.006, 'coef_var_75_125': 0.051, 'std_class_75_125': 0.056}</t>
+          <t>{'var_10_50': 0.281, 'max_50_100': 0.719}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.7</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.87</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 24, 'max_features': 0.47898228293396855, 'min_samples_leaf': 0.07636138956198751, 'min_samples_split': 0.27096856609279313}</t>
+          <t>{'max_depth': 24, 'max_features': 0.33272513059625386, 'min_samples_leaf': 0.001680030054543629, 'min_samples_split': 0.07542285090254548}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'std_class_10_50': 0.055, 'var_10_50': 0.067, 'max_50_100': 0.638, 'coef_var_50_100': 0.082, 'kurt_75_125': 0.158}</t>
+          <t>{'min_10_25': 0.088, 'var_10_25': 0.066, 'kurt_10_50': 0.011, 'score_at_perc_10_50': 0.073, 'var_10_50': 0.057, 'var_25_75': 0.028, 'kurt_50_100': 0.067, 'coef_var_50_100': 0.099, 'std_class_50_100': 0.028, 'var_50_100': 0.026, 'mean_75_125': 0.029, 'max_75_125': 0.295, 'score_at_perc_75_125': 0.025, 'coef_var_75_125': 0.076, 'std_class_75_125': 0.033}</t>
         </is>
       </c>
     </row>
